--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111432.1316913352</v>
+        <v>137274.2921716615</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9865703.132607052</v>
+        <v>10443482.4083753</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22079133.17442485</v>
+        <v>21919622.47264557</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4079616.312177448</v>
+        <v>4100819.084538691</v>
       </c>
     </row>
     <row r="11">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>43.85944218949141</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
     <row r="46">
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>43.8594421894914</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>46.41914195758025</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>46.41914195758025</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>62.26144939749301</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>111.5585063543464</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>160.8555633111999</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>22.5489608811108</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>71.84601783796424</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>121.1430747948177</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>170.4401317516711</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>154.8775612504266</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>104.579574354341</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>54.28158745825552</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>51.2888572379384</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>100.5859141947918</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>149.8829711516453</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.1800281084987</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>148.8820412124132</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>98.58405431632764</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>48.2860674202421</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.983600562169975</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>221.1666787354324</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>212.9051825663978</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.7148261097669</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>132.4205420186164</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>121.3349826493852</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>132.590766746692</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>132.7088230120157</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>85.97480228639998</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>77.60291342766286</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>58.99876929881117</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>33.65816793912805</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>41.36599235998582</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>70.15441326031711</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.3423827029069</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>70.21392947460487</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>41.06252158333071</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.5283497406852</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.47761536183195</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>70.6365977934563</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>60.18264937930154</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>60.16297057655852</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>50.7955347526062</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>67.4361694735309</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>76.9578092403323</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85.97480228639998</v>
+        <v>88.50107625726487</v>
       </c>
       <c r="K44" t="n">
-        <v>77.60291342766286</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L44" t="n">
-        <v>58.99876929881117</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>33.65816793912805</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>29.54237978104271</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>41.36599235998582</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>70.15441326031711</v>
+        <v>1.810057396252972</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.3423827029069</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>70.21392947460487</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K45" t="n">
-        <v>41.06252158333071</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>8.423182087426255</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>19.5283497406852</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.47761536183195</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>70.6365977934563</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L46" t="n">
-        <v>60.18264937930154</v>
+        <v>76.27026363255546</v>
       </c>
       <c r="M46" t="n">
-        <v>60.16297057655852</v>
+        <v>76.5395450441941</v>
       </c>
       <c r="N46" t="n">
-        <v>50.7955347526062</v>
+        <v>67.96672485263694</v>
       </c>
       <c r="O46" t="n">
-        <v>67.4361694735309</v>
+        <v>87.09780125070273</v>
       </c>
       <c r="P46" t="n">
-        <v>76.9578092403323</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23033,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852173</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H11" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I11" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H12" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S12" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T12" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I13" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T13" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H14" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I14" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S15" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T15" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I16" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S21" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S24" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S27" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S33" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S36" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S39" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.1825902111655</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>328.0030935389889</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>167.2914106341195</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>79.50566485817191</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
-        <v>183.494712897039</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1924047410046</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7441855184499</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>106.4471622989392</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>68.761749468207</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>62.94669922618533</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S42" t="n">
-        <v>160.5508486671644</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>197.7490015828257</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4885198403462</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7598506100387</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>140.3401468734729</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>57.83529218611377</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.08791033046781</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
-        <v>154.7009843173077</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>215.2600989804104</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>225.7987169418005</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2916224736848</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>310.8235994311916</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.1825902111655</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H44" t="n">
-        <v>328.0030935389889</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I44" t="n">
-        <v>167.2914106341195</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>79.50566485817191</v>
+        <v>49.65101377519441</v>
       </c>
       <c r="S44" t="n">
-        <v>183.494712897039</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T44" t="n">
-        <v>218.1924047410046</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2560411235189</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>277.9572514430103</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>299.4459616902883</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>336.4429316289289</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7441855184499</v>
+        <v>136.4898938890125</v>
       </c>
       <c r="H45" t="n">
-        <v>106.4471622989392</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I45" t="n">
-        <v>68.761749468207</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>62.94669922618533</v>
+        <v>47.15831191777808</v>
       </c>
       <c r="S45" t="n">
-        <v>160.5508486671644</v>
+        <v>111.9680509922884</v>
       </c>
       <c r="T45" t="n">
-        <v>197.7490015828257</v>
+        <v>196.7240278659264</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9019523675037</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>201.8999761337949</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="46">
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4885198403462</v>
+        <v>167.2753302804353</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7598506100387</v>
+        <v>155.8644016137399</v>
       </c>
       <c r="I46" t="n">
-        <v>140.3401468734729</v>
+        <v>133.9289553808794</v>
       </c>
       <c r="J46" t="n">
-        <v>57.83529218611377</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>44.08791033046781</v>
+        <v>26.23619181829162</v>
       </c>
       <c r="R46" t="n">
-        <v>154.7009843173077</v>
+        <v>145.11520646895</v>
       </c>
       <c r="S46" t="n">
-        <v>215.2600989804104</v>
+        <v>211.5447863772357</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7987169418005</v>
+        <v>175.0928090677837</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2916224736848</v>
+        <v>236.4849869251104</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>202.3426362967033</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>242.6635561470996</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>356883.332408023</v>
+        <v>354774.4382537731</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>351935.4569748751</v>
+        <v>351625.7508975847</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351935.4569748751</v>
+        <v>396372.0831743804</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>70918.35331670486</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="E2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="F2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="G2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="H2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="I2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="J2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="K2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="L2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="M2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="N2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="O2" t="n">
-        <v>76801.1112421303</v>
+        <v>77709.90440324532</v>
       </c>
       <c r="P2" t="n">
-        <v>76801.1112421303</v>
+        <v>88579.31742243857</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19708.98312032399</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>205368.4932914853</v>
+        <v>256945.3264049829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>63045.37126823124</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
+        <v>48378.33248915088</v>
+      </c>
+      <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
-      <c r="D4" t="n">
-        <v>45933.62940400946</v>
-      </c>
       <c r="E4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="F4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="H4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="I4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="J4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="K4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="L4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="M4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="N4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="O4" t="n">
-        <v>15192.12306707271</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>15192.12306707271</v>
+        <v>8029.025061016888</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34129.29174257201</v>
+        <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6074.278792600922</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6074.278792600922</v>
+        <v>11679.08319048216</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.1188937107</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="D6" t="n">
-        <v>-28853.5509502006</v>
+        <v>-12126.11889371071</v>
       </c>
       <c r="E6" t="n">
-        <v>-149833.7839090287</v>
+        <v>-197105.2330791188</v>
       </c>
       <c r="F6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="G6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="H6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="I6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="J6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="K6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="L6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="M6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="N6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="O6" t="n">
-        <v>55534.70938245667</v>
+        <v>59840.0933258641</v>
       </c>
       <c r="P6" t="n">
-        <v>55534.70938245667</v>
+        <v>5825.837902708281</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26743,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>278.6366418624276</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>278.6366418624276</v>
+        <v>396.859943267568</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>255.6232591756383</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>77.03872476952546</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367558</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887679</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760344</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324494</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679516</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332509</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0495004835149808</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246499</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522957</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847949</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588684</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H11" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N11" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P11" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L12" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S13" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T13" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H14" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N14" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P14" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L15" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S16" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T16" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.120147303969557</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>11.47170857677823</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>43.1844789362864</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>95.07110224028631</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
-        <v>142.4869376173177</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>176.7676456711761</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
-        <v>196.6880652881447</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
-        <v>199.8706838155482</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>188.7322190617009</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>161.0785824949524</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.9633071715426</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>70.36345308297777</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>25.52535668920632</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>4.90344482312674</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>5.788281937557223</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
-        <v>20.63488338320808</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>56.62369719206183</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
-        <v>96.77891739102829</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
-        <v>130.1311976924479</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>114.446057673645</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>76.50415872418957</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>37.2111349264578</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
-        <v>11.1323224366734</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.415727111995952</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>4.467321897400891</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
-        <v>15.11032805378542</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>35.52388793055901</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>58.37666037707908</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>74.70202690193675</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>78.76281337104653</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>76.89000971262699</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>71.02036897831189</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>60.77019480881533</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>42.07413292122657</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
-        <v>22.59240705986175</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>8.756499056561861</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>2.146872486480999</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.120147303969557</v>
+        <v>1.595416857357056</v>
       </c>
       <c r="H44" t="n">
-        <v>11.47170857677823</v>
+        <v>16.33906289040796</v>
       </c>
       <c r="I44" t="n">
-        <v>43.1844789362864</v>
+        <v>61.50730839325797</v>
       </c>
       <c r="J44" t="n">
-        <v>95.07110224028631</v>
+        <v>135.4090114971086</v>
       </c>
       <c r="K44" t="n">
-        <v>142.4869376173177</v>
+        <v>202.9430070690328</v>
       </c>
       <c r="L44" t="n">
-        <v>176.7676456711761</v>
+        <v>251.7687457173739</v>
       </c>
       <c r="M44" t="n">
-        <v>196.6880652881447</v>
+        <v>280.1412402543974</v>
       </c>
       <c r="N44" t="n">
-        <v>199.8706838155482</v>
+        <v>279.2080706237156</v>
       </c>
       <c r="O44" t="n">
-        <v>188.7322190617009</v>
+        <v>268.8097920250189</v>
       </c>
       <c r="P44" t="n">
-        <v>161.0785824949524</v>
+        <v>229.4229383590166</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.9633071715426</v>
+        <v>172.2870721549169</v>
       </c>
       <c r="R44" t="n">
-        <v>70.36345308297777</v>
+        <v>100.2181041659553</v>
       </c>
       <c r="S44" t="n">
-        <v>25.52535668920632</v>
+        <v>36.35556163702395</v>
       </c>
       <c r="T44" t="n">
-        <v>4.90344482312674</v>
+        <v>6.983937293080517</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08961178431756457</v>
+        <v>0.1276333485885645</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5993316447606933</v>
+        <v>0.8536232741981653</v>
       </c>
       <c r="H45" t="n">
-        <v>5.788281937557223</v>
+        <v>8.244203727124386</v>
       </c>
       <c r="I45" t="n">
-        <v>20.63488338320808</v>
+        <v>29.39009957217367</v>
       </c>
       <c r="J45" t="n">
-        <v>56.62369719206183</v>
+        <v>80.64867960308193</v>
       </c>
       <c r="K45" t="n">
-        <v>96.77891739102829</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>130.1311976924479</v>
+        <v>157.3072689909255</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>191.929040949143</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>181.136719110458</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P45" t="n">
-        <v>114.446057673645</v>
+        <v>163.0046057545602</v>
       </c>
       <c r="Q45" t="n">
-        <v>76.50415872418957</v>
+        <v>108.96426215905</v>
       </c>
       <c r="R45" t="n">
-        <v>37.2111349264578</v>
+        <v>52.99952223486505</v>
       </c>
       <c r="S45" t="n">
-        <v>11.1323224366734</v>
+        <v>15.85567792205802</v>
       </c>
       <c r="T45" t="n">
-        <v>2.415727111995952</v>
+        <v>3.440700828895235</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03942971347109826</v>
+        <v>0.05615942593408984</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5024595181125743</v>
+        <v>0.7156490780234833</v>
       </c>
       <c r="H46" t="n">
-        <v>4.467321897400891</v>
+        <v>6.362770893699701</v>
       </c>
       <c r="I46" t="n">
-        <v>15.11032805378542</v>
+        <v>21.52151954637894</v>
       </c>
       <c r="J46" t="n">
-        <v>35.52388793055901</v>
+        <v>50.59638981626026</v>
       </c>
       <c r="K46" t="n">
-        <v>58.37666037707908</v>
+        <v>83.14541106491014</v>
       </c>
       <c r="L46" t="n">
-        <v>74.70202690193675</v>
+        <v>106.3975001999641</v>
       </c>
       <c r="M46" t="n">
-        <v>78.76281337104653</v>
+        <v>112.1812459305356</v>
       </c>
       <c r="N46" t="n">
-        <v>76.89000971262699</v>
+        <v>109.5138266397209</v>
       </c>
       <c r="O46" t="n">
-        <v>71.02036897831189</v>
+        <v>101.1537442282647</v>
       </c>
       <c r="P46" t="n">
-        <v>60.77019480881533</v>
+        <v>86.55450303658561</v>
       </c>
       <c r="Q46" t="n">
-        <v>42.07413292122657</v>
+        <v>59.92585143340277</v>
       </c>
       <c r="R46" t="n">
-        <v>22.59240705986175</v>
+        <v>32.17818490821952</v>
       </c>
       <c r="S46" t="n">
-        <v>8.756499056561861</v>
+        <v>12.47181165973652</v>
       </c>
       <c r="T46" t="n">
-        <v>2.146872486480999</v>
+        <v>3.057773333373064</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02740688280614045</v>
+        <v>0.0390354042558264</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>42.86418322768715</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>16.00233074738662</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>38.71158060333218</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>18.75288921105134</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>29.03019834022993</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,16 +38180,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>47.78308755128124</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>49.79500702712468</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
